--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>Funciona</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
-    <t>azucar</t>
-  </si>
-  <si>
-    <t>y asi también</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Azucar</t>
+  </si>
+  <si>
+    <t>Mas Azucar</t>
+  </si>
+  <si>
+    <t>Mas caracteristicas</t>
+  </si>
+  <si>
+    <t>Loop1</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>loop2</t>
+  </si>
+  <si>
+    <t>diferente</t>
+  </si>
+  <si>
+    <t>loop3</t>
+  </si>
+  <si>
+    <t>loop4</t>
+  </si>
+  <si>
+    <t>:nombre</t>
+  </si>
+  <si>
+    <t>:precio</t>
+  </si>
+  <si>
+    <t>:azucar</t>
+  </si>
+  <si>
+    <t>:carac</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>:total</t>
   </si>
 </sst>
 </file>
@@ -34,12 +76,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -59,17 +110,50 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -371,36 +455,127 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" t="s">
+      <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="M7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
